--- a/Wedding Products.xlsx
+++ b/Wedding Products.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keyideas/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439FCDE4-996A-DC42-97C1-470AEB192722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Wedding Bands" sheetId="2" r:id="rId1"/>
@@ -991,7 +985,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1364,54 +1358,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
   </sheetPr>
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" customWidth="1"/>
     <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="112.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="112.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
-    <col min="15" max="15" width="35.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="35.109375" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="39.5" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="39.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" customWidth="1"/>
     <col min="19" max="19" width="76" customWidth="1"/>
     <col min="20" max="20" width="80.6640625" customWidth="1"/>
-    <col min="21" max="21" width="34.5" customWidth="1"/>
-    <col min="22" max="22" width="27.83203125" customWidth="1"/>
-    <col min="23" max="23" width="37.5" customWidth="1"/>
-    <col min="24" max="24" width="29.5" customWidth="1"/>
-    <col min="25" max="25" width="43.5" customWidth="1"/>
+    <col min="21" max="21" width="34.44140625" customWidth="1"/>
+    <col min="22" max="22" width="27.77734375" customWidth="1"/>
+    <col min="23" max="23" width="37.44140625" customWidth="1"/>
+    <col min="24" max="24" width="29.44140625" customWidth="1"/>
+    <col min="25" max="25" width="43.44140625" customWidth="1"/>
     <col min="26" max="26" width="36.33203125" customWidth="1"/>
-    <col min="27" max="27" width="43.5" customWidth="1"/>
-    <col min="28" max="28" width="34.1640625" customWidth="1"/>
-    <col min="29" max="29" width="35.83203125" customWidth="1"/>
-    <col min="30" max="30" width="31.1640625" customWidth="1"/>
+    <col min="27" max="27" width="43.44140625" customWidth="1"/>
+    <col min="28" max="28" width="34.109375" customWidth="1"/>
+    <col min="29" max="29" width="35.77734375" customWidth="1"/>
+    <col min="30" max="30" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -1563,7 +1557,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -1627,7 +1621,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -1689,7 +1683,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -1761,7 +1755,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -1821,7 +1815,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1875,7 +1869,7 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1947,7 +1941,7 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -2001,7 +1995,7 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -2055,7 +2049,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -2109,7 +2103,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -2169,7 +2163,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -2223,7 +2217,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -2277,7 +2271,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -2331,7 +2325,7 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1015</v>
       </c>
@@ -2385,7 +2379,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1016</v>
       </c>
@@ -2449,7 +2443,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1017</v>
       </c>
@@ -2503,7 +2497,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1018</v>
       </c>
@@ -2563,7 +2557,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1019</v>
       </c>
@@ -2623,7 +2617,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1020</v>
       </c>
@@ -2677,7 +2671,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1021</v>
       </c>
@@ -2737,7 +2731,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1022</v>
       </c>
@@ -2791,7 +2785,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1023</v>
       </c>
@@ -2845,7 +2839,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1024</v>
       </c>
@@ -2899,7 +2893,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1025</v>
       </c>
@@ -2965,7 +2959,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1026</v>
       </c>
@@ -3031,7 +3025,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1027</v>
       </c>
@@ -3101,7 +3095,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1028</v>
       </c>
@@ -3155,7 +3149,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1029</v>
       </c>
@@ -3209,7 +3203,7 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1030</v>
       </c>
@@ -3263,7 +3257,7 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1031</v>
       </c>
@@ -3317,7 +3311,7 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1032</v>
       </c>
@@ -3381,7 +3375,7 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1033</v>
       </c>
@@ -3435,7 +3429,7 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1034</v>
       </c>
@@ -3507,7 +3501,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1035</v>
       </c>
@@ -3579,7 +3573,7 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1036</v>
       </c>
@@ -3649,7 +3643,7 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1037</v>
       </c>
@@ -3703,7 +3697,7 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1038</v>
       </c>
@@ -3775,7 +3769,7 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1039</v>
       </c>
@@ -3829,7 +3823,7 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1040</v>
       </c>
@@ -3883,7 +3877,7 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
     </row>
-    <row r="42" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1041</v>
       </c>
@@ -3945,7 +3939,7 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
     </row>
-    <row r="43" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1042</v>
       </c>
@@ -4005,7 +3999,7 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
     </row>
-    <row r="44" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>1043</v>
       </c>
@@ -4065,7 +4059,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1044</v>
       </c>
@@ -4121,7 +4115,7 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
     </row>
-    <row r="46" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1045</v>
       </c>
@@ -4177,7 +4171,7 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
     </row>
-    <row r="47" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>1046</v>
       </c>
@@ -4233,7 +4227,7 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1047</v>
       </c>
@@ -4287,7 +4281,7 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
     </row>
-    <row r="49" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>1048</v>
       </c>
@@ -4361,7 +4355,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>1049</v>
       </c>
@@ -4433,7 +4427,7 @@
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
     </row>
-    <row r="51" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>1050</v>
       </c>
@@ -4501,7 +4495,7 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
     </row>
-    <row r="52" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>1051</v>
       </c>
@@ -4573,7 +4567,7 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
     </row>
-    <row r="53" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1052</v>
       </c>
@@ -4649,7 +4643,7 @@
       </c>
       <c r="AD53" s="5"/>
     </row>
-    <row r="54" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1053</v>
       </c>
@@ -4719,7 +4713,7 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
     </row>
-    <row r="55" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>1054</v>
       </c>
@@ -4789,7 +4783,7 @@
       </c>
       <c r="AD55" s="5"/>
     </row>
-    <row r="56" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>1055</v>
       </c>
@@ -4863,7 +4857,7 @@
       </c>
       <c r="AD56" s="5"/>
     </row>
-    <row r="57" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>1056</v>
       </c>
@@ -4933,7 +4927,7 @@
       </c>
       <c r="AD57" s="5"/>
     </row>
-    <row r="58" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>1057</v>
       </c>
@@ -5020,7 +5014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A5CBF-4C6C-DB44-B2BC-4CBA4335083C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5030,13 +5024,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.83203125" customWidth="1"/>
+    <col min="1" max="1" width="84.77734375" customWidth="1"/>
     <col min="2" max="2" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5044,7 +5038,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5052,7 +5046,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -5060,7 +5054,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -5068,7 +5062,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -5076,7 +5070,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +5078,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5086,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -5100,7 +5094,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -5108,7 +5102,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -5116,7 +5110,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +5118,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -5132,7 +5126,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -5140,7 +5134,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -5164,7 +5158,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -5172,7 +5166,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
@@ -5180,7 +5174,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
@@ -5188,7 +5182,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
@@ -5196,7 +5190,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
@@ -5204,7 +5198,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
@@ -5228,7 +5222,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
@@ -5236,7 +5230,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
@@ -5244,7 +5238,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
@@ -5252,7 +5246,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
@@ -5260,7 +5254,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
@@ -5268,7 +5262,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
